--- a/biology/Zoologie/Dardurus_silvaticus/Dardurus_silvaticus.xlsx
+++ b/biology/Zoologie/Dardurus_silvaticus/Dardurus_silvaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dardurus silvaticus est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dardurus silvaticus est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre sur le mont Glorious[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre sur le mont Glorious.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,18 mm de long sur 0,88 mm et l'abdomen 1,28 mm de long sur 1,10 mm et la carapace du mâle paratype mesure 1,10 mm de long sur 0,78 mm et l'abdomen 1,12 mm de long sur 0,74 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,18 mm de long sur 0,88 mm et l'abdomen 1,28 mm de long sur 1,10 mm et la carapace du mâle paratype mesure 1,10 mm de long sur 0,78 mm et l'abdomen 1,12 mm de long sur 0,74 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Davies, 1976 : Dardurus, a new genus of amaurobiid spider from eastern Australia, with descriptions of six new species. Memoirs of the Queensland Museum, vol. 17, p. 399-411 (texte intégral).</t>
         </is>
